--- a/Check_Registered/Data/Documents/DataEntry.xlsx
+++ b/Check_Registered/Data/Documents/DataEntry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\Check_Registered\Data\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C454312-274A-4673-A079-462EB144024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1397FA-D757-421F-B0B9-00757029C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -21,24 +21,11 @@
     <sheet name="ChallanDetails" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>Token</t>
   </si>
@@ -320,18 +307,58 @@
   </si>
   <si>
     <t>FinalStatus</t>
+  </si>
+  <si>
+    <t>25102799901314</t>
+  </si>
+  <si>
+    <t>Jamal Hasan Maner(Aslam Ibrahim Hiroli)</t>
+  </si>
+  <si>
+    <t>26010499905564</t>
+  </si>
+  <si>
+    <t>Shilpa Vanarase</t>
+  </si>
+  <si>
+    <t>25121799901255</t>
+  </si>
+  <si>
+    <t>Barge</t>
+  </si>
+  <si>
+    <t>Dussal</t>
+  </si>
+  <si>
+    <t>25121399900009</t>
+  </si>
+  <si>
+    <t>25121199902986</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>zakasman@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,17 +398,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,19 +686,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBDE89-C25C-4615-9B17-355C27957451}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1">
@@ -784,161 +817,223 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>8689888190</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4">
-        <v>46027</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H4">
-        <v>9766484746</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
+        <v>9226771488</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5">
-        <v>8689888190</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="A6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6">
-        <v>9226771488</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46027</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>9766484746</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E11" s="4">
         <v>46031</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G11" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4">
+        <v>46036</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1279,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Check_Registered/Data/Documents/DataEntry.xlsx
+++ b/Check_Registered/Data/Documents/DataEntry.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1397FA-D757-421F-B0B9-00757029C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -21,15 +15,181 @@
     <sheet name="ChallanDetails" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>Token</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TokenDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>OwnerEmail</t>
+  </si>
+  <si>
+    <t>TenanEmail</t>
+  </si>
+  <si>
+    <t>OwnerMobile</t>
+  </si>
+  <si>
+    <t>TenantMobile</t>
+  </si>
+  <si>
+    <t>PoliceStation</t>
+  </si>
+  <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>Challan</t>
+  </si>
+  <si>
+    <t>RentDetails</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>25122299900005</t>
+  </si>
+  <si>
+    <t>Manoj Nagmode(Kumbhar)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>raservicespune@gmail.com</t>
+  </si>
+  <si>
+    <t>26010899902764</t>
+  </si>
+  <si>
+    <t>Ankush Pandhare(Bapat)</t>
+  </si>
+  <si>
+    <t>ankush.pandhare@yahoo.com</t>
+  </si>
+  <si>
+    <t>mf.manish@gmail.com</t>
+  </si>
+  <si>
+    <t>25122099902350</t>
+  </si>
+  <si>
+    <t>Manoj Nagmode(Kodlinge)</t>
+  </si>
+  <si>
+    <t>manoj.nagmode@gmail.com</t>
+  </si>
+  <si>
+    <t>26010499905564</t>
+  </si>
+  <si>
+    <t>Shilpa Vanarase</t>
+  </si>
+  <si>
+    <t>25121799901255</t>
+  </si>
+  <si>
+    <t>Barge</t>
+  </si>
+  <si>
+    <t>25121399900009</t>
+  </si>
+  <si>
+    <t>Dussal</t>
+  </si>
+  <si>
+    <t>25121199902986</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>25121099902654</t>
+  </si>
+  <si>
+    <t>Kanad Sante</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>26010399900046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand Deshmukh </t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>ananddeshmukh2300@gmail.com</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>26010499902939</t>
+  </si>
+  <si>
+    <t>Rajan Urane(Monde)</t>
+  </si>
+  <si>
+    <t>rajanurane@59gmail.com</t>
+  </si>
+  <si>
+    <t>sangrammonde24@gmail.com</t>
+  </si>
+  <si>
+    <t>25102799901314</t>
+  </si>
+  <si>
+    <t>Jamal Hasan Maner(Aslam Ibrahim Hiroli)</t>
+  </si>
+  <si>
+    <t>zakasman@gmail.com</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -87,9 +247,6 @@
     <t>411045</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>T2/1301</t>
   </si>
   <si>
@@ -174,126 +331,12 @@
     <t>StampDuty</t>
   </si>
   <si>
-    <t>DHC</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TokenDate</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>SubmissionDate</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Email2</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>Mobile2</t>
-  </si>
-  <si>
-    <t>PoliceStation</t>
-  </si>
-  <si>
-    <t>Parties</t>
-  </si>
-  <si>
-    <t>Identifiers</t>
-  </si>
-  <si>
-    <t>Challan</t>
-  </si>
-  <si>
-    <t>RentDetails</t>
-  </si>
-  <si>
-    <t>GRN</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>25122299900005</t>
-  </si>
-  <si>
-    <t>Manoj Nagmode(Kumbhar)</t>
-  </si>
-  <si>
-    <t>Registered</t>
-  </si>
-  <si>
-    <t>raservicespune@gmail.com</t>
-  </si>
-  <si>
-    <t>25121099902654</t>
-  </si>
-  <si>
-    <t>Kanad Sante</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>26010399900046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand Deshmukh </t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>ananddeshmukh2300@gmail.com</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>26010899902764</t>
-  </si>
-  <si>
-    <t>Ankush Pandhare(Bapat)</t>
-  </si>
-  <si>
-    <t>ankush.pandhare@yahoo.com</t>
-  </si>
-  <si>
-    <t>mf.manish@gmail.com</t>
-  </si>
-  <si>
-    <t>25122099902350</t>
-  </si>
-  <si>
-    <t>Manoj Nagmode(Kodlinge)</t>
-  </si>
-  <si>
-    <t>manoj.nagmode@gmail.com</t>
-  </si>
-  <si>
-    <t>26010499902939</t>
-  </si>
-  <si>
-    <t>Rajan Urane(Monde)</t>
-  </si>
-  <si>
-    <t>rajanurane@59gmail.com</t>
-  </si>
-  <si>
-    <t>sangrammonde24@gmail.com</t>
-  </si>
-  <si>
     <t>FlatDetails</t>
   </si>
   <si>
@@ -307,58 +350,25 @@
   </si>
   <si>
     <t>FinalStatus</t>
-  </si>
-  <si>
-    <t>25102799901314</t>
-  </si>
-  <si>
-    <t>Jamal Hasan Maner(Aslam Ibrahim Hiroli)</t>
-  </si>
-  <si>
-    <t>26010499905564</t>
-  </si>
-  <si>
-    <t>Shilpa Vanarase</t>
-  </si>
-  <si>
-    <t>25121799901255</t>
-  </si>
-  <si>
-    <t>Barge</t>
-  </si>
-  <si>
-    <t>Dussal</t>
-  </si>
-  <si>
-    <t>25121399900009</t>
-  </si>
-  <si>
-    <t>25121199902986</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>zakasman@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,16 +387,353 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -394,35 +741,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -680,506 +1313,510 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBDE89-C25C-4615-9B17-355C27957451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.2857142857143" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="30.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="28.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="22.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="6"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
+      <c r="A2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>46032</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>9226771488</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>8689888190</v>
       </c>
       <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>9226771488</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>97</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>99</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>100</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>103</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
-        <v>73</v>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="4">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6">
         <v>46027</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>9766484746</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="4">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6">
         <v>46031</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>95</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="4">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6">
         <v>46036</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.1428571428571" style="5" customWidth="1"/>
+    <col min="2" max="3" width="21.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="13.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.4285714285714" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
     <col min="13" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
+    <col min="7" max="9" width="9.14285714285714" customWidth="1"/>
+    <col min="10" max="10" width="15.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="24.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.1428571428571" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="15" max="18" width="9.14285714285714" customWidth="1"/>
+    <col min="19" max="19" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1187,178 +1824,180 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J2">
         <v>411024</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>411024</v>
@@ -1366,31 +2005,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
+    <col min="6" max="10" width="17.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="17.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="16.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="19.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1398,47 +2039,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>46023</v>
       </c>
       <c r="E2">
@@ -1448,91 +2089,94 @@
         <v>20000</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB51B76C-CBAE-44C1-9B0B-0E19EA18E852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="23.25" customHeight="1" spans="1:17">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>93</v>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>